--- a/ExcelReportGenerator.Samples/Reports/Templates/DataSourcePanelDataReaderConnect_Template.xlsx
+++ b/ExcelReportGenerator.Samples/Reports/Templates/DataSourcePanelDataReaderConnect_Template.xlsx
@@ -12,15 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="d_Data" comment="DataSource=m:DataProvider:GetEmployeesAsIDataReader(); GroupBy=1">Sheet1!$B$6:$J$6</definedName>
-    <definedName name="t_Rate" comment="DataSource=m:DataProvider:GetEmployeesAsIDataReader()">Sheet1!$B$7</definedName>
+    <definedName name="d_Data" comment="DataSource=m:DataProvider:GetEmployeesAsIDataReader(); GroupBy=1;">Sheet1!$B$6:$J$6</definedName>
+    <definedName name="t_Rate" comment="DataSource=m:DataProvider:GetEmployeesAsIDataReader()">Sheet1!$J$7</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>{p:ReportName}</t>
   </si>
@@ -82,7 +82,10 @@
     <t>Report time: {sf:Format(sv:RenderDate, "g")}</t>
   </si>
   <si>
-    <t>Total Rate: {Sum(di:Rate)}</t>
+    <t>{Sum(di:Rate)}</t>
+  </si>
+  <si>
+    <t>Total Rate</t>
   </si>
 </sst>
 </file>
@@ -128,15 +131,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -204,19 +213,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -231,17 +268,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,7 +590,7 @@
   <dimension ref="A2:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,50 +602,50 @@
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -646,7 +689,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -675,23 +718,25 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:R3"/>
-    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
